--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -11,23 +11,1272 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>arg</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>ex_result</t>
+  </si>
+  <si>
+    <t>发送验证码</t>
+  </si>
+  <si>
+    <t>{"account":"13701837591","smsType":2}</t>
+  </si>
+  <si>
+    <t>sendSMS.do</t>
+  </si>
+  <si>
+    <t>{"code":11003,"data":"","msg":"用户不存在"}</t>
+  </si>
+  <si>
+    <t>{"account":"137018375911","smsType":1}</t>
+  </si>
+  <si>
+    <t>{'code': 10005, 'data': '', 'msg': '手机号错误！'}</t>
+  </si>
+  <si>
+    <t>{"account":"","smsType":1}</t>
+  </si>
+  <si>
+    <t>{'code': 10001, 'data': '参数account错误！', 'msg': '参数错误！'}</t>
+  </si>
+  <si>
+    <t>{"account":"13701837591~!","smsType":1}</t>
+  </si>
+  <si>
+    <t>{"account":"13701837591","smsType":1}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"code":0,"data":"","msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"code":10004,"data":"","msg":"验证短信发送过频！"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"code":11002,"data":"","msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户已存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
   <si>
     <t>注册</t>
   </si>
   <si>
+    <t>{"account":"13701837591","password":"a123456","verifyCode":"082481"}</t>
+  </si>
+  <si>
+    <t>onRegist.do</t>
+  </si>
+  <si>
+    <t>{'code': 10002, 'data': '', 'msg': '验证码错误！'}</t>
+  </si>
+  <si>
+    <t>{"account":"","password":"a123456","verifyCode":"123456"}</t>
+  </si>
+  <si>
+    <t>{"account":"137018375911","password":"a123456","verifyCode":"1"}</t>
+  </si>
+  <si>
+    <t>{"account":"1370183759!","password":"a123456","verifyCode":"1"}</t>
+  </si>
+  <si>
+    <t>{"account":"11111111111","password":"a123456","verifyCode":"1"}</t>
+  </si>
+  <si>
+    <t>{"account":"13701837591","password":"a123456","verifyCode":""}</t>
+  </si>
+  <si>
+    <t>{'code': 10001, 'data': '参数verifyCode错误！', 'msg': '参数错误！'}</t>
+  </si>
+  <si>
+    <t>{"account":"13701837591","password":"123456","verifyCode":"1"}</t>
+  </si>
+  <si>
     <t>{"account":"13701837591","password":"a123456","verifyCode":"1"}</t>
   </si>
   <si>
-    <t>onRegist.do</t>
-  </si>
-  <si>
-    <t>注册成功</t>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>{"account": "", "password": ""}</t>
+  </si>
+  <si>
+    <t>onLogin.do</t>
+  </si>
+  <si>
+    <t>{"code":10001,"data":"参数account错误！","msg":"参数错误！"}</t>
+  </si>
+  <si>
+    <t>{"account":" ","password":""}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"code":10001,"data":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数错误！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"account":"13701837591","password":""}</t>
+  </si>
+  <si>
+    <t>{'code': 11004, 'data': '', 'msg': '密码错误！'}</t>
+  </si>
+  <si>
+    <t>{"account":"13701837591","password":"a"}</t>
+  </si>
+  <si>
+    <t>{"account":"13701837591","password":"a12345"}</t>
+  </si>
+  <si>
+    <t>{"code":11004,"data":"","msg":"密码错误！"}</t>
+  </si>
+  <si>
+    <t>{"account":"13701837591","password":"a12345!"}</t>
+  </si>
+  <si>
+    <t>{"account":"13701837591","password":"a111111"}</t>
+  </si>
+  <si>
+    <t>{"account": "11111111111", "password": "a123456"}</t>
+  </si>
+  <si>
+    <t>{"code":10005,"data":"","msg":"手机号错误！"}</t>
+  </si>
+  <si>
+    <t>{"account": "137018375911", "password": "a123456"}</t>
+  </si>
+  <si>
+    <t>{"account": "1370183759!", "password": "a123456"}</t>
+  </si>
+  <si>
+    <t>{"account":"18501604617 ","password":"a123456"}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'data': {'account': '18501604617', 'userId': 33}, 'msg': '成功'}</t>
+  </si>
+  <si>
+    <t>{"account":"18501604617","password":"a123456"}</t>
+  </si>
+  <si>
+    <t>{"code":0,"data":"","msg":"成功"}</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>{"account":"13701837591","password":"a111111","verifyCode":""}</t>
+  </si>
+  <si>
+    <t>resetPassword.do</t>
+  </si>
+  <si>
+    <r>
+      <t>{"code":10001,"data":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>verifyCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数错误！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"account":"13701837591","password":"a111111","verifyCode":"123456"}</t>
+  </si>
+  <si>
+    <t>{"code":10002,"data":"","msg":"验证码错误！"}</t>
+  </si>
+  <si>
+    <t>{"account":"13701837591","password":"a111111","verifyCode":"1"}</t>
+  </si>
+  <si>
+    <t>添加车辆</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH224814","userId":"","colorId":""}</t>
+  </si>
+  <si>
+    <t>addVehicleInfo.do</t>
+  </si>
+  <si>
+    <t>{"code":10001,"data":"参数userId错误！","msg":"参数错误！"}</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH224814","userId":2,"colorId":""}</t>
+  </si>
+  <si>
+    <t>{'code': 10001, 'data': '参数colorId错误！', 'msg': '参数错误！'}</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH22481","userId":2,"colorId":1}</t>
+  </si>
+  <si>
+    <t>{'code': 10001, 'data': '参数vin错误！', 'msg': '参数错误！'}</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH224814","userId":2222222,"colorId":1}</t>
+  </si>
+  <si>
+    <t>{'code': 11003, 'data': '', 'msg': '用户不存在'}</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH224814 ","userId":2,"colorId":1}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'data': {'vehicleColor': 1, 'vin': 'LSGGA54Y6CH224814'}, 'msg': '成功'}</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH224814","userId":2,"colorId":1}</t>
+  </si>
+  <si>
+    <r>
+      <t>{'code': 0, 'data': {'vehicleColor': 1, 'vin': 'LSGGA54Y6CH224814'}, 'msg': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>'}</t>
+    </r>
+  </si>
+  <si>
+    <t>{'code': 16003, 'data': '', 'msg': '用户已绑定车辆！'}</t>
+  </si>
+  <si>
+    <t>查询车辆</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH224814 ","userId":2,"queryType":0}</t>
+  </si>
+  <si>
+    <t>getVehicleInfo.do</t>
+  </si>
+  <si>
+    <t>{"code":10001,"data":"参数queryType错误！","msg":"参数错误！"}</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH224814 ","userId":22222,"queryType":2}</t>
+  </si>
+  <si>
+    <t>{"vin":"11111111111111111","userId":2,"queryType":2}</t>
+  </si>
+  <si>
+    <t>{"code":16002,"data":"","msg":"车辆信息未找到！"}</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH22481@","userId":2,"queryType":1}</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH22481","userId":2,"queryType":2}</t>
+  </si>
+  <si>
+    <t>{"vin":"","userId":2,"queryType":2}</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH224814 ","userId":2,"queryType":2}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"code":0,"data":{"vehicleBrandImage":"http://img.lianchexing.cn/app/1.png","vehicleBrandName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海通用别克</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","vehicleColorList":[{"colorId":1,"colorName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>布朗棕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","colorTone":"5C4646"}],"vehicleModelName":"2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款新君威</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>2.0L"},"msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH224814","userId":2,"queryType":2}</t>
+  </si>
+  <si>
+    <t>{"code":0,"data":{"vehicleBrandImage":"http://img.lianchexing.cn/app/1.png","vehicleBrandName":"上海通用别克","vehicleColorList":[{"colorId":1,"colorName":"布朗棕","colorTone":"5C4646"}],"vehicleModelName":"2012款新君威2.0L"},"msg":"成功"}</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH224814","userId":2,"queryType":1}</t>
+  </si>
+  <si>
+    <t>{"code":0,"data":{"vehicleBrandName":"上海通用别克","vehicleColorList":[],"vehicleModelName":"2012款新君威2.0L"},"msg":"成功"}</t>
+  </si>
+  <si>
+    <t>添加终端</t>
+  </si>
+  <si>
+    <t>{"boxId":"xincheduntest001","userId":22222}</t>
+  </si>
+  <si>
+    <t>addBoxInfo.do</t>
+  </si>
+  <si>
+    <t>{"boxId":"","userId":2}</t>
+  </si>
+  <si>
+    <t>{'code': 10001, 'data': '参数boxId错误！', 'msg': '参数错误！'}</t>
+  </si>
+  <si>
+    <t>{"boxId":"xincheduntest00","userId":2}</t>
+  </si>
+  <si>
+    <t>{"code":10001,"data":"参数boxId错误！","msg":"参数错误！"}</t>
+  </si>
+  <si>
+    <t>{"boxId":"111111111111111!","userId":2}</t>
+  </si>
+  <si>
+    <t>{"boxId":"xinchedunapp000 1","userId":2}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"code":0,"data":{"boxId":"XINCHEDUNAPP0001"},"msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>删除终端</t>
+  </si>
+  <si>
+    <t>{"boxId":"xinchedunapp0001","userId":22222}</t>
+  </si>
+  <si>
+    <t>deleteBoxInfo.do</t>
+  </si>
+  <si>
+    <t>{"boxId":"xinchedunapp000","userId":1}</t>
+  </si>
+  <si>
+    <t>{"boxId":"xinchedunapp0001 ","userId":2}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'data': '', 'msg': '成功'}</t>
+  </si>
+  <si>
+    <t>{"boxId":"xinchedunapp0001","userId":2}</t>
+  </si>
+  <si>
+    <t>{'code': 17001, 'data': '', 'msg': '用户还未绑定终端！'}</t>
+  </si>
+  <si>
+    <t>删除车辆</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH224814","userId":""}</t>
+  </si>
+  <si>
+    <t>deleteVehicleInfo.do</t>
+  </si>
+  <si>
+    <t>{'code': 10001, 'data': '参数userId错误！', 'msg': '参数错误！'}</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH22481","userId":2}</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH224814","userId":22222}</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH224814 ","userId":2}</t>
+  </si>
+  <si>
+    <t>{"vin":"LSGGA54Y6CH224814","userId":2}</t>
+  </si>
+  <si>
+    <t>{'code': 16001, 'data': '', 'msg': '用户未绑定车辆！'}</t>
+  </si>
+  <si>
+    <t>获取车辆图片资源</t>
+  </si>
+  <si>
+    <t>{"userId":22222}</t>
+  </si>
+  <si>
+    <t>getImageUrl.do</t>
+  </si>
+  <si>
+    <t>{"userId":2}</t>
+  </si>
+  <si>
+    <t>{"code":0,"data":{"vehicleImageUrl":"http://img.lianchexing.cn/app/TIIDA/TIIDA布朗棕/vehicle.zip"},"msg":"成功"}</t>
+  </si>
+  <si>
+    <t>获取通知列表</t>
+  </si>
+  <si>
+    <t>{"userId":22222,"type":1}</t>
+  </si>
+  <si>
+    <t>getNotice.do</t>
+  </si>
+  <si>
+    <t>{"userId":2,"type":1}</t>
+  </si>
+  <si>
+    <t>{"userId":2,"type":2}</t>
+  </si>
+  <si>
+    <t>{"userId":2,"type":0}</t>
+  </si>
+  <si>
+    <t>{"code":10001,"data":"参数type错误！","msg":"参数错误！"}</t>
+  </si>
+  <si>
+    <t>通知状态更改</t>
+  </si>
+  <si>
+    <t>{"userId":22222,"status":1,"id":1}</t>
+  </si>
+  <si>
+    <t>updateNotice.do</t>
+  </si>
+  <si>
+    <t>{"userId":2,"status":1,"id":0}</t>
+  </si>
+  <si>
+    <t>{'code': 10001, 'data': '参数id错误！', 'msg': '参数错误！'}</t>
+  </si>
+  <si>
+    <t>{"userId":4,"status":1,"id":1}</t>
+  </si>
+  <si>
+    <t>{"code":12002,"data":"","msg":"指定通知与用户不符！"}</t>
+  </si>
+  <si>
+    <t>{"userId":2,"status":1,"id":1}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"code":0,"data":1,"msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"userId":2,"status":2,"id":1}</t>
+  </si>
+  <si>
+    <t>{"code":0,"data":1,"msg":"成功"}</t>
+  </si>
+  <si>
+    <t>{"userId":2,"status":2,"id":0}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"code":10001,"data":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数错误！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>删除通知</t>
+  </si>
+  <si>
+    <t>{"userId":1,"idList":[1]}</t>
+  </si>
+  <si>
+    <t>deleteNotice.do</t>
+  </si>
+  <si>
+    <r>
+      <t>{"code":11003,"data":"","msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户不存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"userId":2,"idList":[]}</t>
+  </si>
+  <si>
+    <t>{'code': 10001, 'data': '参数idList错误！', 'msg': '参数错误！'}</t>
+  </si>
+  <si>
+    <t>{"userId":2,"idList":[0]}</t>
+  </si>
+  <si>
+    <t>{"userId":2,"idList":[1,11111]}</t>
+  </si>
+  <si>
+    <t>{"userId":2,"idList":[1]}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'data': 1, 'msg': '成功'}</t>
+  </si>
+  <si>
+    <t>{"userId":2,"idList":[2,3]}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'data': 2, 'msg': '成功'}</t>
+  </si>
+  <si>
+    <t>获取个人资料</t>
+  </si>
+  <si>
+    <t>getPersonInfo.do</t>
+  </si>
+  <si>
+    <t>编辑个人资料</t>
+  </si>
+  <si>
+    <t>setPersonInfo.do</t>
+  </si>
+  <si>
+    <t>{"code":10001,"data":"参数nickname为空！","msg":"参数错误！"}</t>
+  </si>
+  <si>
+    <t>{"userId":33,"nickname":""}</t>
+  </si>
+  <si>
+    <t>{"code":10001,"data":"参数nickname长度错误！","msg":"参数错误！"}</t>
+  </si>
+  <si>
+    <t>{"userId":33,"nickname":" "}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"code":10001,"data":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>nickname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长度错误！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数错误！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"userId":33,"nickname":"1234567891234567891"}</t>
+  </si>
+  <si>
+    <t>{"userId":33,"nickname":"123456789123456789"}</t>
+  </si>
+  <si>
+    <t>{"code":10001,"data":"参数birthday为空！","msg":"参数错误！"}</t>
+  </si>
+  <si>
+    <t>{"userId":33,"nickname":"1"}</t>
+  </si>
+  <si>
+    <t>{"userId":33,"nickname":"1","birthday":""}</t>
+  </si>
+  <si>
+    <t>{"userId":33,"nickname":"1","birthday":"1"}</t>
+  </si>
+  <si>
+    <t>{"code":10001,"data":"参数birthday格式错误！","msg":"参数错误！"}</t>
+  </si>
+  <si>
+    <t>{"userId":33,"nickname":"1","birthday":"2000-6-6"}</t>
+  </si>
+  <si>
+    <t>{"code":10001,"data":"参数sex错误！","msg":"参数错误！"}</t>
+  </si>
+  <si>
+    <t>{"userId":33,"nickname":"1","birthday":"2000-6-6","sex":0}</t>
+  </si>
+  <si>
+    <t>{"userId":33,"nickname":"1","birthday":"2000-6-6","sex":1}</t>
+  </si>
+  <si>
+    <t>{"userId":33,"nickname":"1","birthday":"2000-6-6","sex":2}</t>
+  </si>
+  <si>
+    <t>{"userId":33,"nickname":"1","birthday":"2000-6-6","sex":2,"imageUrl":"C:/Users/admin/Desktop/testImage.PNG"}</t>
+  </si>
+  <si>
+    <t>{"userId":33,"nickname":"1","birthday":"2000-6-6","sex":2,"imageUrl":"C:/Users/admin/Desktop/testImage.PNG","city":""}</t>
+  </si>
+  <si>
+    <t>{"userId":22222,"nickname":"1","birthday":"2000-6-6","sex":2,"imageUrl":"C:/Users/admin/Desktop/testImage.PNG","city":""}</t>
+  </si>
+  <si>
+    <t>设置推送</t>
+  </si>
+  <si>
+    <t>{"userId":22222,"pushId":"168"}</t>
+  </si>
+  <si>
+    <t>setPushId.do</t>
+  </si>
+  <si>
+    <t>{"userId":2,"pushId":""}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"code":10001,"data":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>pushId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数错误！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"userId":2,"pushId":"11111"}</t>
+  </si>
+  <si>
+    <t>{"userId":2,"pushId":"168"}</t>
+  </si>
+  <si>
+    <t>获取用户模块</t>
+  </si>
+  <si>
+    <t>getModuleInfo.do</t>
+  </si>
+  <si>
+    <r>
+      <t>{"code":0,"data":[{"imageUrl":"http://img.lianchexing.cn/app/module/inspect","moduleDescribe":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测车辆状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","moduleId":1,"moduleName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车况检测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","status":1},{"imageUrl":"http://img.lianchexing.cn/app/module/data","moduleDescribe":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>展示车辆数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","moduleId":2,"moduleName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行车电脑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","status":2},{"imageUrl":"http://img.lianchexing.cn/app/module/4s","moduleDescribe":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>展示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>4S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>店信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","moduleId":3,"moduleName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>4S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>","status":2}],"msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>设置4s店</t>
+  </si>
+  <si>
+    <t>setUser4SInfo.do</t>
+  </si>
+  <si>
+    <t>{'code': 10001, 'data': '参数info4S错误！', 'msg': '参数错误！'}</t>
+  </si>
+  <si>
+    <t>{"userId":22222,"info4S":1}</t>
+  </si>
+  <si>
+    <t>{"userId":2,"info4S":0}</t>
+  </si>
+  <si>
+    <t>{"userId":2,"info4S":2}</t>
+  </si>
+  <si>
+    <t>{'code': 13003, 'data': '', 'msg': '4S店信息错误！'}</t>
+  </si>
+  <si>
+    <t>{"userId":2,"info4S":1}</t>
+  </si>
+  <si>
+    <t>获取4s店</t>
+  </si>
+  <si>
+    <t>get4SInfo.do</t>
+  </si>
+  <si>
+    <t>{"userId":4}</t>
+  </si>
+  <si>
+    <t>{"code":13002,"data":"","msg":"用户4S店信息不存在！"}</t>
+  </si>
+  <si>
+    <t>{"code":0,"data":{"imageUrl":"testImageURL","name":"test4Sname","phoneNumber":"12345678912"},"msg":"成功"}</t>
+  </si>
+  <si>
+    <t>获取行车电脑数据</t>
+  </si>
+  <si>
+    <t>getVehicleComputer.do</t>
+  </si>
+  <si>
+    <t>{'code': 16008, 'data': '', 'msg': '没有车辆数据！'}</t>
+  </si>
+  <si>
+    <t>获取版本信息</t>
+  </si>
+  <si>
+    <t>{"userId":22222,"boxId":"xinchedunapp0001"}</t>
+  </si>
+  <si>
+    <t>getVersionInfo.do</t>
+  </si>
+  <si>
+    <t>{"userId":2,"boxId":"xinchedunapp000"}</t>
+  </si>
+  <si>
+    <t>{"userId":4,"boxId":"SC22XSGG7SEC3278"}</t>
+  </si>
+  <si>
+    <t>{"code":17003,"data":"","msg":"指定终端与用户不匹配！"}</t>
+  </si>
+  <si>
+    <t>{"userId":4,"boxId":"SD51KVEN3YH59064"}</t>
+  </si>
+  <si>
+    <t>{"userId":2,"boxId":"SC22XSGG7SEC3278"}</t>
+  </si>
+  <si>
+    <t>{"code":0,"data":{"currentVersion":"ACUBE_18.0.000","newestVersion":"ACUBE_19.0.000","serverVersion":""},"msg":"成功"}</t>
+  </si>
+  <si>
+    <t>获取车辆位置</t>
+  </si>
+  <si>
+    <t>getVehicleLocation.do</t>
+  </si>
+  <si>
+    <t>获取车辆轨迹</t>
+  </si>
+  <si>
+    <t>{"userId":22222,"trackType":0,"timeType":2,"trackTime":0}</t>
+  </si>
+  <si>
+    <t>getVehicleHistoricalTrack.do</t>
+  </si>
+  <si>
+    <t>{"userId":2,"trackType":2,"timeType":2,"trackTime":0}</t>
   </si>
 </sst>
 </file>
@@ -35,12 +1284,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,15 +1304,54 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,9 +1363,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,59 +1417,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,9 +1438,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,34 +1469,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="10"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -220,7 +1499,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,91 +1667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,79 +1679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,13 +1693,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,6 +1725,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -449,17 +1752,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,35 +1776,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,10 +1798,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,137 +1810,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,10 +1950,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1018,48 +2317,1783 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A67" sqref="$A66:$XFD66 $A67:$XFD67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="52.375" customWidth="1"/>
-    <col min="3" max="3" width="54.875" customWidth="1"/>
-    <col min="4" max="4" width="53.25" customWidth="1"/>
+    <col min="1" max="1" width="17.975" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.2666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.65" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
-      <c r="A2" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="12.75" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12.75" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +4104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1087,7 +4121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
